--- a/Paper_resultados/Cox_model/Output/Multivariate_model/CCI_Multivariate.xlsx
+++ b/Paper_resultados/Cox_model/Output/Multivariate_model/CCI_Multivariate.xlsx
@@ -419,7 +419,7 @@
         <v>5.548475501087746</v>
       </c>
       <c r="E3">
-        <v>1.526942874058643e-005</v>
+        <v>1.526942874058642e-05</v>
       </c>
     </row>
   </sheetData>
